--- a/data/trans_orig/P14B21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB7A593-04A7-4B33-8B90-8FE08DF582BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6A0C53-F084-4330-8C2F-5D2792F27A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A2EFB3E1-1C2C-4AFE-A12B-750BB1652E5D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E925CF85-E295-4FF8-B613-980A18627AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="441">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -94,1279 +94,1273 @@
     <t>75,45%</t>
   </si>
   <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>57,59%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>92,76%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>73,04%</t>
   </si>
   <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>66,83%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>67,66%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
   </si>
   <si>
     <t>32,34%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>70,33%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
   </si>
   <si>
     <t>66,06%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>60,51%</t>
   </si>
   <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>29,67%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>33,94%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>39,49%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>53,44%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
   </si>
   <si>
     <t>46,56%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B4C174-D88F-478E-AFFF-17F29C01960A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE1274-8990-4F90-BBF1-EB5E9B224A76}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2969,7 +2963,7 @@
         <v>1967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>23</v>
@@ -2984,13 +2978,13 @@
         <v>17318</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2999,13 +2993,13 @@
         <v>19285</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3014,7 @@
         <v>2029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
@@ -3035,13 +3029,13 @@
         <v>8739</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -3050,13 +3044,13 @@
         <v>10768</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3118,13 @@
         <v>22208</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>112</v>
@@ -3139,13 +3133,13 @@
         <v>120459</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -3154,13 +3148,13 @@
         <v>142668</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3169,13 @@
         <v>19078</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -3190,13 +3184,13 @@
         <v>68278</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -3291,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C19610C-7738-4545-BC02-9B4169672D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE70D0-9EE1-4BE5-8264-75C238CA4820}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3451,7 +3445,7 @@
         <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3460,7 @@
         <v>1970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
@@ -3481,13 +3475,13 @@
         <v>4591</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3496,13 +3490,13 @@
         <v>6561</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,7 +3564,7 @@
         <v>1016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>23</v>
@@ -3585,13 +3579,13 @@
         <v>12479</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -3600,13 +3594,13 @@
         <v>13495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3615,7 @@
         <v>1885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
@@ -3636,13 +3630,13 @@
         <v>5397</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3651,13 +3645,13 @@
         <v>7283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3725,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3740,13 +3734,13 @@
         <v>9569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3755,13 +3749,13 @@
         <v>9569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,7 +3773,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3791,13 +3785,13 @@
         <v>3135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3806,13 +3800,13 @@
         <v>4069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,10 +3874,10 @@
         <v>6092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -3895,13 +3889,13 @@
         <v>17477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3910,13 +3904,13 @@
         <v>23569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3925,13 @@
         <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3946,13 +3940,13 @@
         <v>11823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3961,13 +3955,13 @@
         <v>12721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +4029,10 @@
         <v>3860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -4050,13 +4044,13 @@
         <v>15078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4065,13 +4059,13 @@
         <v>18938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4080,13 @@
         <v>891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4101,13 +4095,13 @@
         <v>4045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4116,13 +4110,13 @@
         <v>4936</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4184,13 @@
         <v>2587</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4205,13 +4199,13 @@
         <v>13186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -4223,10 +4217,10 @@
         <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,10 +4235,10 @@
         <v>3172</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>14</v>
@@ -4256,13 +4250,13 @@
         <v>3039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4274,10 +4268,10 @@
         <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4339,13 @@
         <v>8396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4360,13 +4354,13 @@
         <v>19623</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -4375,13 +4369,13 @@
         <v>28020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4390,13 @@
         <v>6173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4411,13 +4405,13 @@
         <v>20533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -4426,13 +4420,13 @@
         <v>26705</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4494,13 @@
         <v>5935</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4515,13 +4509,13 @@
         <v>18750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -4530,13 +4524,13 @@
         <v>24685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4545,13 @@
         <v>2834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4566,13 +4560,13 @@
         <v>14518</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -4581,13 +4575,13 @@
         <v>17353</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4649,13 @@
         <v>29119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H28" s="7">
         <v>116</v>
@@ -4670,13 +4664,13 @@
         <v>127617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -4685,13 +4679,13 @@
         <v>156736</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4700,13 @@
         <v>18756</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -4721,13 +4715,13 @@
         <v>67082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -4736,13 +4730,13 @@
         <v>85838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5509AEB5-5211-4936-A6D7-7AF5947D8C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D116AD-E09F-44C2-87B0-3CFBE256D1EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4839,7 +4833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4946,13 +4940,13 @@
         <v>5727</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -4961,13 +4955,13 @@
         <v>20070</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4976,13 +4970,13 @@
         <v>25798</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4991,13 @@
         <v>3756</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5012,7 +5006,7 @@
         <v>10134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>300</v>
@@ -5274,10 +5268,10 @@
         <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5286,13 +5280,13 @@
         <v>31202</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5301,13 @@
         <v>9238</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5322,13 +5316,13 @@
         <v>20619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -5337,13 +5331,13 @@
         <v>29857</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,10 +5405,10 @@
         <v>6442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -5426,13 +5420,13 @@
         <v>22992</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5441,13 +5435,13 @@
         <v>29434</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5456,13 @@
         <v>1209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5477,13 +5471,13 @@
         <v>3888</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5492,13 +5486,13 @@
         <v>5097</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5560,13 @@
         <v>3710</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5581,13 +5575,13 @@
         <v>16599</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -5596,13 +5590,13 @@
         <v>20309</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5611,13 @@
         <v>6991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5632,13 +5626,13 @@
         <v>11310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5647,13 +5641,13 @@
         <v>18301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5715,13 @@
         <v>12017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -5736,13 +5730,13 @@
         <v>27273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -5751,13 +5745,13 @@
         <v>39290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5766,13 @@
         <v>5966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -5787,13 +5781,13 @@
         <v>13033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5802,13 +5796,13 @@
         <v>18999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5870,13 @@
         <v>19868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -5891,13 +5885,13 @@
         <v>79074</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -5906,13 +5900,13 @@
         <v>98943</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5921,13 @@
         <v>26829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -5942,13 +5936,13 @@
         <v>38030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -5957,13 +5951,13 @@
         <v>64859</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6025,13 @@
         <v>4044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>406</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6046,13 +6040,13 @@
         <v>34367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -6061,13 +6055,13 @@
         <v>38410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6076,13 @@
         <v>7402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -6097,13 +6091,13 @@
         <v>17660</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6112,13 +6106,13 @@
         <v>25063</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6180,13 @@
         <v>82549</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H28" s="7">
         <v>409</v>
@@ -6201,13 +6195,13 @@
         <v>275378</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M28" s="7">
         <v>494</v>
@@ -6216,13 +6210,13 @@
         <v>357927</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,13 +6231,13 @@
         <v>71910</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
@@ -6252,13 +6246,13 @@
         <v>142312</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>275</v>
@@ -6267,13 +6261,13 @@
         <v>214223</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B21-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B21-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E6A0C53-F084-4330-8C2F-5D2792F27A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13D27A89-1AA8-42FA-94B3-7803C047D5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E925CF85-E295-4FF8-B613-980A18627AC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96847B71-6909-4680-B282-D6D085885859}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="443">
   <si>
     <t>Población cuyas migrañas le limita en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -94,19 +94,19 @@
     <t>75,45%</t>
   </si>
   <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -121,19 +121,19 @@
     <t>24,55%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -148,19 +148,19 @@
     <t>30,02%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>59,63%</t>
@@ -172,19 +172,19 @@
     <t>69,98%</t>
   </si>
   <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -193,307 +193,301 @@
     <t>43,2%</t>
   </si>
   <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>51,21%</t>
   </si>
   <si>
     <t>35,83%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>56,64%</t>
   </si>
   <si>
     <t>62,02%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>36,18%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>43,36%</t>
   </si>
   <si>
     <t>37,98%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas migrañas le limita en 2015 (Tasa respuesta: 3,41%)</t>
+    <t>Población cuyas migrañas le limita en 2016 (Tasa respuesta: 3,41%)</t>
   </si>
   <si>
     <t>38,47%</t>
@@ -502,16 +496,19 @@
     <t>82,37%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>57,85%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>61,53%</t>
@@ -520,16 +517,19 @@
     <t>17,63%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>42,15%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>35,03%</t>
@@ -538,16 +538,19 @@
     <t>69,81%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>40,63%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>64,97%</t>
@@ -556,16 +559,19 @@
     <t>30,19%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>59,37%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -574,16 +580,19 @@
     <t>75,32%</t>
   </si>
   <si>
-    <t>47,7%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>70,16%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -592,310 +601,313 @@
     <t>24,68%</t>
   </si>
   <si>
-    <t>52,3%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>29,84%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>56,37%</t>
+    <t>45,21%</t>
   </si>
   <si>
     <t>59,65%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>43,63%</t>
+    <t>54,79%</t>
   </si>
   <si>
     <t>40,35%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>20,98%</t>
+    <t>22,25%</t>
   </si>
   <si>
     <t>78,85%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>79,32%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>79,02%</t>
+    <t>77,75%</t>
   </si>
   <si>
     <t>21,15%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
   </si>
   <si>
     <t>20,68%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>89,49%</t>
+    <t>84,66%</t>
   </si>
   <si>
     <t>81,27%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>15,34%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
   </si>
   <si>
     <t>57,63%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>51,2%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>67,68%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>37,42%</t>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
+    <t>53,32%</t>
   </si>
   <si>
     <t>34,45%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>Población cuyas migrañas le limita en 2023 (Tasa respuesta: 8,8%)</t>
@@ -1216,9 +1228,6 @@
     <t>58,55%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
     <t>58,71%</t>
   </si>
   <si>
@@ -1238,9 +1247,6 @@
   </si>
   <si>
     <t>72,66%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
   </si>
   <si>
     <t>24,8%</t>
@@ -1772,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFE1274-8990-4F90-BBF1-EB5E9B224A76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D36CCF-7F15-4B07-B391-AEF86254C392}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2963,7 +2969,7 @@
         <v>1967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>23</v>
@@ -2978,13 +2984,13 @@
         <v>17318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2993,13 +2999,13 @@
         <v>19285</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,7 +3020,7 @@
         <v>2029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>23</v>
@@ -3029,13 +3035,13 @@
         <v>8739</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -3044,13 +3050,13 @@
         <v>10768</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3124,13 @@
         <v>22208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>112</v>
@@ -3133,13 +3139,13 @@
         <v>120459</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="M28" s="7">
         <v>133</v>
@@ -3169,13 +3175,13 @@
         <v>19078</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -3184,13 +3190,13 @@
         <v>68278</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>83</v>
@@ -3199,13 +3205,13 @@
         <v>87356</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,7 +3267,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3285,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE70D0-9EE1-4BE5-8264-75C238CA4820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97E0F9-61FA-477D-95D2-A9714C21783B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3302,7 +3308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3409,7 +3415,7 @@
         <v>1231</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
@@ -3424,13 +3430,13 @@
         <v>21455</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3439,13 +3445,13 @@
         <v>22686</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,7 +3466,7 @@
         <v>1970</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
@@ -3475,13 +3481,13 @@
         <v>4591</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3490,10 +3496,10 @@
         <v>6561</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>163</v>
@@ -3600,7 +3606,7 @@
         <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3621,7 @@
         <v>1885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
@@ -3630,13 +3636,13 @@
         <v>5397</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -3645,13 +3651,13 @@
         <v>7283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3734,13 +3740,13 @@
         <v>9569</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3749,13 +3755,13 @@
         <v>9569</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3779,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3785,13 +3791,13 @@
         <v>3135</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3800,13 +3806,13 @@
         <v>4069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,10 +3880,10 @@
         <v>6092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -3889,13 +3895,13 @@
         <v>17477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -3907,10 +3913,10 @@
         <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3931,13 @@
         <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3940,13 +3946,13 @@
         <v>11823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -3955,13 +3961,13 @@
         <v>12721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +4035,10 @@
         <v>3860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -4044,13 +4050,13 @@
         <v>15078</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -4059,13 +4065,13 @@
         <v>18938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4086,13 @@
         <v>891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4095,13 +4101,13 @@
         <v>4045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4110,13 +4116,13 @@
         <v>4936</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4190,13 @@
         <v>2587</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4199,13 +4205,13 @@
         <v>13186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -4217,10 +4223,10 @@
         <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,10 +4241,10 @@
         <v>3172</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>14</v>
@@ -4250,13 +4256,13 @@
         <v>3039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4268,10 +4274,10 @@
         <v>62</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>8396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -4354,13 +4360,13 @@
         <v>19623</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -4369,13 +4375,13 @@
         <v>28020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4396,13 @@
         <v>6173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4405,13 +4411,13 @@
         <v>20533</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -4420,13 +4426,13 @@
         <v>26705</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4500,13 @@
         <v>5935</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -4509,13 +4515,13 @@
         <v>18750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -4524,13 +4530,13 @@
         <v>24685</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4551,13 @@
         <v>2834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4560,13 +4566,13 @@
         <v>14518</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -4575,13 +4581,13 @@
         <v>17353</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4655,13 @@
         <v>29119</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>116</v>
@@ -4664,13 +4670,13 @@
         <v>127617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M28" s="7">
         <v>143</v>
@@ -4679,13 +4685,13 @@
         <v>156736</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4706,13 @@
         <v>18756</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -4715,13 +4721,13 @@
         <v>67082</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -4730,13 +4736,13 @@
         <v>85838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4798,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D116AD-E09F-44C2-87B0-3CFBE256D1EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F21049A-028C-4862-9D37-0CED19B8FA29}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4833,7 +4839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4940,13 +4946,13 @@
         <v>5727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -4955,13 +4961,13 @@
         <v>20070</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4970,13 +4976,13 @@
         <v>25798</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4997,13 @@
         <v>3756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5006,13 +5012,13 @@
         <v>10134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5021,13 +5027,13 @@
         <v>13890</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5101,13 @@
         <v>24295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>64</v>
@@ -5110,13 +5116,13 @@
         <v>50245</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>83</v>
@@ -5125,13 +5131,13 @@
         <v>74540</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5152,13 @@
         <v>10519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -5161,13 +5167,13 @@
         <v>27639</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -5176,13 +5182,13 @@
         <v>38158</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5256,13 @@
         <v>6445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5265,13 +5271,13 @@
         <v>24757</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -5280,13 +5286,13 @@
         <v>31202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5307,13 @@
         <v>9238</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -5316,13 +5322,13 @@
         <v>20619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -5331,13 +5337,13 @@
         <v>29857</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,10 +5411,10 @@
         <v>6442</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -5420,13 +5426,13 @@
         <v>22992</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5435,13 +5441,13 @@
         <v>29434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5462,13 @@
         <v>1209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5471,13 +5477,13 @@
         <v>3888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5486,13 +5492,13 @@
         <v>5097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5566,13 @@
         <v>3710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -5575,13 +5581,13 @@
         <v>16599</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -5590,13 +5596,13 @@
         <v>20309</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5617,13 @@
         <v>6991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5626,13 +5632,13 @@
         <v>11310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5641,13 +5647,13 @@
         <v>18301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5721,13 @@
         <v>12017</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -5730,13 +5736,13 @@
         <v>27273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -5745,13 +5751,13 @@
         <v>39290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5772,13 @@
         <v>5966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -5781,13 +5787,13 @@
         <v>13033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -5796,13 +5802,13 @@
         <v>18999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5876,13 @@
         <v>19868</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -5885,13 +5891,13 @@
         <v>79074</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>392</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -5900,13 +5906,13 @@
         <v>98943</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5927,13 @@
         <v>26829</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -5936,13 +5942,13 @@
         <v>38030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>400</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -5951,13 +5957,13 @@
         <v>64859</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6031,13 @@
         <v>4044</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6040,13 +6046,13 @@
         <v>34367</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -6055,13 +6061,13 @@
         <v>38410</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6082,13 @@
         <v>7402</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -6091,13 +6097,13 @@
         <v>17660</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -6106,13 +6112,13 @@
         <v>25063</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6186,13 @@
         <v>82549</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H28" s="7">
         <v>409</v>
@@ -6195,13 +6201,13 @@
         <v>275378</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M28" s="7">
         <v>494</v>
@@ -6210,13 +6216,13 @@
         <v>357927</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6237,13 @@
         <v>71910</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
@@ -6246,13 +6252,13 @@
         <v>142312</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>275</v>
@@ -6261,13 +6267,13 @@
         <v>214223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,7 +6329,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
